--- a/biology/Botanique/Square_Nicole-de-Hauteclocque/Square_Nicole-de-Hauteclocque.xlsx
+++ b/biology/Botanique/Square_Nicole-de-Hauteclocque/Square_Nicole-de-Hauteclocque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Nicole-de-Hauteclocque est un espace vert du 15e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par le no 23, rue Desaix.
 Il est desservi par la ligne 6 à la station Dupleix.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square porte le nom de la femme politique et résistante Nicole de Hauteclocque (1913-1993) qui fut une élue du 15e arrondissement.
 </t>
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square se situe à l'emplacement d'un très ancien jardin, celui du château et de la ferme de Grenelle, qui était appelé au XVIIIe siècle « jardin de Grenelle » ainsi qu'on peut le voir sur le plan d'arpentage de 1751 réalisé en vue de la construction de l'École militaire[1].
-Le square actuel fut créé en 1998 dans le cadre de l'aménagement de la ZAC Dupleix. Il occupe une partie de l'emprise de l’ancienne caserne Dupleix. Les concepteurs sont Anne-Sylvie Bruel et Christophe Delmar de l'atelier de paysages Bruel-Delmar[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square se situe à l'emplacement d'un très ancien jardin, celui du château et de la ferme de Grenelle, qui était appelé au XVIIIe siècle « jardin de Grenelle » ainsi qu'on peut le voir sur le plan d'arpentage de 1751 réalisé en vue de la construction de l'École militaire.
+Le square actuel fut créé en 1998 dans le cadre de l'aménagement de la ZAC Dupleix. Il occupe une partie de l'emprise de l’ancienne caserne Dupleix. Les concepteurs sont Anne-Sylvie Bruel et Christophe Delmar de l'atelier de paysages Bruel-Delmar.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est composé d’une partie haute et d’une partie basse ; sa végétation est faite de tilleuls, graminées, plantes vivaces, arbustes à fleurs, figuiers. S'y ajoutent deux aires de jeux pour enfants avec jeux à ressort, structures à grimper et toboggan[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est composé d’une partie haute et d’une partie basse ; sa végétation est faite de tilleuls, graminées, plantes vivaces, arbustes à fleurs, figuiers. S'y ajoutent deux aires de jeux pour enfants avec jeux à ressort, structures à grimper et toboggan.
 </t>
         </is>
       </c>
